--- a/biology/Biochimie/Facteur_XIII/Facteur_XIII.xlsx
+++ b/biology/Biochimie/Facteur_XIII/Facteur_XIII.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le facteur XIII est une proenzyme de la coagulation sanguine qui ramifie la fibrine. Après que la thrombine a converti le fibrinogène en fibrine, cette dernière forme un réseau protéinacé dans lequel chaque unité E est liée latéralement à seulement une unité D. Le facteur XIII est activé par la thrombine en facteur XIIIa ; son activation en facteur XIIIa nécessite des ions calcium Ca2+ comme cofacteurs.
 On l'appelle également facteur Laki-Lorand ou facteur de stabilisation de la fibrine.
-Le facteur de coagulation XIII humain est un hétérotétramère constitué de deux peptides A enzymatiques et deux peptides B non enzymatiques. XIIIa est un homodimère de peptides A activés[3].
+Le facteur de coagulation XIII humain est un hétérotétramère constitué de deux peptides A enzymatiques et deux peptides B non enzymatiques. XIIIa est un homodimère de peptides A activés.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Enzyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Portion de texte anglais à traduire en français
@@ -551,7 +565,9 @@
           <t>Rôle dans les maladies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une déficience en facteur XIII est très rare, et peut provoquer une grave prédisposition aux hémorragies graves.
 </t>
